--- a/config_12.22/game_module_config_cjj.xlsx
+++ b/config_12.22/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="919">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3827,71 +3827,31 @@
     <t>act_039_jzhhl</t>
   </si>
   <si>
-    <t>饺子换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_039_JZHHLManager</t>
   </si>
   <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>12月</t>
+      <t>12月21</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
-    <r>
-      <t>12月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4062,7 +4022,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4202,6 +4162,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4484,10 +4447,10 @@
   <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="J308" sqref="J308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11487,29 +11450,29 @@
         <v>822</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="19">
+    <row r="276" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="31">
         <v>275</v>
       </c>
-      <c r="B276" s="18" t="s">
+      <c r="B276" s="32" t="s">
         <v>824</v>
       </c>
-      <c r="C276" s="18" t="s">
+      <c r="C276" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="D276" s="23" t="s">
+      <c r="D276" s="47" t="s">
         <v>825</v>
       </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-      <c r="G276">
-        <v>0</v>
-      </c>
-      <c r="I276" s="24" t="s">
+      <c r="E276" s="33">
+        <v>1</v>
+      </c>
+      <c r="F276" s="33">
+        <v>1</v>
+      </c>
+      <c r="G276" s="33">
+        <v>1</v>
+      </c>
+      <c r="I276" s="34" t="s">
         <v>826</v>
       </c>
     </row>
@@ -12148,31 +12111,30 @@
         <v>911</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="7">
+    <row r="302" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="31">
         <v>301</v>
       </c>
-      <c r="B302" s="45" t="s">
+      <c r="B302" s="47" t="s">
         <v>912</v>
       </c>
-      <c r="C302" s="46" t="s">
+      <c r="C302" s="32" t="s">
+        <v>917</v>
+      </c>
+      <c r="D302" s="47" t="s">
         <v>913</v>
       </c>
-      <c r="D302" s="45" t="s">
-        <v>914</v>
-      </c>
-      <c r="E302" s="2">
-        <v>1</v>
-      </c>
-      <c r="F302" s="2">
-        <v>1</v>
-      </c>
-      <c r="G302" s="2">
-        <v>1</v>
-      </c>
-      <c r="H302" s="2"/>
+      <c r="E302" s="33">
+        <v>1</v>
+      </c>
+      <c r="F302" s="33">
+        <v>1</v>
+      </c>
+      <c r="G302" s="33">
+        <v>1</v>
+      </c>
       <c r="I302" s="46" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12180,14 +12142,14 @@
         <v>302</v>
       </c>
       <c r="B303" s="45" t="s">
+        <v>914</v>
+      </c>
+      <c r="C303" s="46" t="s">
+        <v>915</v>
+      </c>
+      <c r="D303" s="45" t="s">
         <v>916</v>
       </c>
-      <c r="C303" s="46" t="s">
-        <v>917</v>
-      </c>
-      <c r="D303" s="45" t="s">
-        <v>918</v>
-      </c>
       <c r="E303" s="2">
         <v>1</v>
       </c>
@@ -12198,8 +12160,8 @@
         <v>1</v>
       </c>
       <c r="H303" s="2"/>
-      <c r="I303" s="46" t="s">
-        <v>919</v>
+      <c r="I303" s="44" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.22/game_module_config_cjj.xlsx
+++ b/config_12.22/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="916">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3665,18 +3665,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_034_ldfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福利（小游戏）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>by3d_shtx</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3852,6 +3840,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4022,7 +4011,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4141,9 +4130,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4444,13 +4430,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J308" sqref="J308"/>
+      <selection pane="bottomRight" activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10301,7 +10287,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -11460,7 +11446,7 @@
       <c r="C276" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="D276" s="47" t="s">
+      <c r="D276" s="46" t="s">
         <v>825</v>
       </c>
       <c r="E276" s="33">
@@ -11507,7 +11493,7 @@
         <v>830</v>
       </c>
       <c r="C278" s="36" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D278" s="37" t="s">
         <v>831</v>
@@ -11548,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11808,53 +11794,56 @@
         <v>736</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="31">
+    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="19">
         <v>289</v>
       </c>
-      <c r="B290" s="32" t="s">
+      <c r="B290" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="C290" s="32" t="s">
+      <c r="C290" s="18" t="s">
         <v>871</v>
       </c>
-      <c r="E290" s="33">
-        <v>0</v>
-      </c>
-      <c r="F290" s="33">
-        <v>0</v>
-      </c>
-      <c r="G290" s="33">
-        <v>0</v>
-      </c>
-      <c r="I290" s="34" t="s">
+      <c r="D290" s="23" t="s">
         <v>872</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="24" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="19">
         <v>290</v>
       </c>
-      <c r="B291" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="C291" s="18" t="s">
+      <c r="B291" t="s">
         <v>874</v>
       </c>
-      <c r="D291" s="23" t="s">
+      <c r="C291" t="s">
         <v>875</v>
       </c>
+      <c r="D291" t="s">
+        <v>876</v>
+      </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291">
-        <v>0</v>
-      </c>
-      <c r="I291" s="24" t="s">
-        <v>876</v>
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11862,40 +11851,40 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>878</v>
+      </c>
+      <c r="C292" t="s">
+        <v>879</v>
+      </c>
+      <c r="D292" t="s">
+        <v>880</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
         <v>877</v>
       </c>
-      <c r="C292" t="s">
-        <v>878</v>
-      </c>
-      <c r="D292" t="s">
-        <v>879</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
-        <v>880</v>
-      </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="31">
+      <c r="A293" s="19">
         <v>292</v>
       </c>
-      <c r="B293" t="s">
-        <v>881</v>
-      </c>
-      <c r="C293" t="s">
+      <c r="B293" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="D293" t="s">
+      <c r="C293" s="18" t="s">
         <v>883</v>
       </c>
+      <c r="D293" s="25" t="s">
+        <v>884</v>
+      </c>
       <c r="E293">
         <v>1</v>
       </c>
@@ -11905,8 +11894,8 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" t="s">
-        <v>880</v>
+      <c r="I293" s="24" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11943,10 +11932,10 @@
         <v>888</v>
       </c>
       <c r="C295" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>889</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>890</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11961,206 +11950,180 @@
         <v>736</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="31">
+    <row r="296" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="19">
         <v>295</v>
       </c>
-      <c r="B296" s="25" t="s">
-        <v>891</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>884</v>
-      </c>
-      <c r="D296" s="25" t="s">
+      <c r="B296" s="40" t="s">
         <v>892</v>
       </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-      <c r="I296" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="40">
+      <c r="C296" s="41" t="s">
+        <v>893</v>
+      </c>
+      <c r="D296" s="40" t="s">
+        <v>894</v>
+      </c>
+      <c r="E296" s="42">
+        <v>1</v>
+      </c>
+      <c r="F296" s="42">
+        <v>1</v>
+      </c>
+      <c r="G296" s="42">
+        <v>1</v>
+      </c>
+      <c r="I296" s="43" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="19">
         <v>296</v>
       </c>
-      <c r="B297" s="41" t="s">
+      <c r="B297" s="40" t="s">
+        <v>896</v>
+      </c>
+      <c r="C297" s="41" t="s">
+        <v>897</v>
+      </c>
+      <c r="D297" s="40" t="s">
+        <v>898</v>
+      </c>
+      <c r="E297" s="42">
+        <v>1</v>
+      </c>
+      <c r="F297" s="42">
+        <v>1</v>
+      </c>
+      <c r="G297" s="42">
+        <v>1</v>
+      </c>
+      <c r="I297" s="43" t="s">
         <v>895</v>
       </c>
-      <c r="C297" s="42" t="s">
-        <v>896</v>
-      </c>
-      <c r="D297" s="41" t="s">
-        <v>897</v>
-      </c>
-      <c r="E297" s="43">
-        <v>1</v>
-      </c>
-      <c r="F297" s="43">
-        <v>1</v>
-      </c>
-      <c r="G297" s="43">
-        <v>1</v>
-      </c>
-      <c r="I297" s="44" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="40">
+    </row>
+    <row r="298" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="31">
         <v>297</v>
       </c>
-      <c r="B298" s="41" t="s">
-        <v>899</v>
-      </c>
-      <c r="C298" s="42" t="s">
+      <c r="B298" s="40" t="s">
         <v>900</v>
       </c>
-      <c r="D298" s="41" t="s">
+      <c r="C298" s="41" t="s">
         <v>901</v>
       </c>
-      <c r="E298" s="43">
-        <v>1</v>
-      </c>
-      <c r="F298" s="43">
-        <v>1</v>
-      </c>
-      <c r="G298" s="43">
-        <v>1</v>
-      </c>
-      <c r="I298" s="44" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="40">
+      <c r="E298" s="42">
+        <v>1</v>
+      </c>
+      <c r="F298" s="42">
+        <v>1</v>
+      </c>
+      <c r="G298" s="42">
+        <v>1</v>
+      </c>
+      <c r="I298" s="43" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="19">
         <v>298</v>
       </c>
-      <c r="B299" s="41" t="s">
+      <c r="B299" s="40" t="s">
         <v>903</v>
       </c>
-      <c r="C299" s="42" t="s">
+      <c r="C299" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="E299" s="43">
-        <v>1</v>
-      </c>
-      <c r="F299" s="43">
-        <v>1</v>
-      </c>
-      <c r="G299" s="43">
-        <v>1</v>
-      </c>
-      <c r="I299" s="44" t="s">
+      <c r="D299" s="40" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="40">
+      <c r="E299" s="42">
+        <v>1</v>
+      </c>
+      <c r="F299" s="42">
+        <v>1</v>
+      </c>
+      <c r="G299" s="42">
+        <v>1</v>
+      </c>
+      <c r="I299" s="43" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="19">
         <v>299</v>
       </c>
-      <c r="B300" s="41" t="s">
+      <c r="B300" s="40" t="s">
         <v>906</v>
       </c>
-      <c r="C300" s="42" t="s">
+      <c r="D300" s="40" t="s">
         <v>907</v>
       </c>
-      <c r="D300" s="41" t="s">
+      <c r="E300" s="42">
+        <v>1</v>
+      </c>
+      <c r="F300" s="42">
+        <v>1</v>
+      </c>
+      <c r="G300" s="42">
+        <v>1</v>
+      </c>
+      <c r="I300" s="43" t="s">
         <v>908</v>
       </c>
-      <c r="E300" s="43">
-        <v>1</v>
-      </c>
-      <c r="F300" s="43">
-        <v>1</v>
-      </c>
-      <c r="G300" s="43">
-        <v>1</v>
-      </c>
-      <c r="I300" s="44" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="40">
+    </row>
+    <row r="301" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="31">
         <v>300</v>
       </c>
-      <c r="B301" s="41" t="s">
+      <c r="B301" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="D301" s="41" t="s">
+      <c r="C301" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="D301" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="E301" s="43">
-        <v>1</v>
-      </c>
-      <c r="F301" s="43">
-        <v>1</v>
-      </c>
-      <c r="G301" s="43">
-        <v>1</v>
-      </c>
-      <c r="I301" s="44" t="s">
+      <c r="E301" s="33">
+        <v>1</v>
+      </c>
+      <c r="F301" s="33">
+        <v>1</v>
+      </c>
+      <c r="G301" s="33">
+        <v>1</v>
+      </c>
+      <c r="I301" s="45" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="19">
+        <v>301</v>
+      </c>
+      <c r="B302" s="44" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="31">
-        <v>301</v>
-      </c>
-      <c r="B302" s="47" t="s">
+      <c r="C302" s="45" t="s">
         <v>912</v>
       </c>
-      <c r="C302" s="32" t="s">
-        <v>917</v>
-      </c>
-      <c r="D302" s="47" t="s">
+      <c r="D302" s="44" t="s">
         <v>913</v>
       </c>
-      <c r="E302" s="33">
-        <v>1</v>
-      </c>
-      <c r="F302" s="33">
-        <v>1</v>
-      </c>
-      <c r="G302" s="33">
-        <v>1</v>
-      </c>
-      <c r="I302" s="46" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="7">
-        <v>302</v>
-      </c>
-      <c r="B303" s="45" t="s">
-        <v>914</v>
-      </c>
-      <c r="C303" s="46" t="s">
-        <v>915</v>
-      </c>
-      <c r="D303" s="45" t="s">
-        <v>916</v>
-      </c>
-      <c r="E303" s="2">
-        <v>1</v>
-      </c>
-      <c r="F303" s="2">
-        <v>1</v>
-      </c>
-      <c r="G303" s="2">
-        <v>1</v>
-      </c>
-      <c r="H303" s="2"/>
-      <c r="I303" s="44" t="s">
+      <c r="E302" s="2">
+        <v>1</v>
+      </c>
+      <c r="F302" s="2">
+        <v>1</v>
+      </c>
+      <c r="G302" s="2">
+        <v>1</v>
+      </c>
+      <c r="H302" s="2"/>
+      <c r="I302" s="43" t="s">
         <v>644</v>
       </c>
     </row>

--- a/config_12.22/game_module_config_cjj.xlsx
+++ b/config_12.22/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="917">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3846,6 +3846,10 @@
       </rPr>
       <t>日23:59:59</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4436,7 +4440,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B309" sqref="B309"/>
+      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12057,6 +12061,9 @@
       </c>
       <c r="B300" s="40" t="s">
         <v>906</v>
+      </c>
+      <c r="C300" s="41" t="s">
+        <v>916</v>
       </c>
       <c r="D300" s="40" t="s">
         <v>907</v>

--- a/config_12.22/game_module_config_cjj.xlsx
+++ b/config_12.22/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="920">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3851,6 +3851,15 @@
   <si>
     <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+  </si>
+  <si>
+    <t>捕鱼通用掉落活动</t>
+  </si>
+  <si>
+    <t>Act_039_TYBYDROPManager</t>
   </si>
 </sst>
 </file>
@@ -4434,13 +4443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
+      <selection pane="bottomRight" activeCell="I307" activeCellId="1" sqref="I303 I307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12131,6 +12140,33 @@
       </c>
       <c r="H302" s="2"/>
       <c r="I302" s="43" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="31">
+        <v>302</v>
+      </c>
+      <c r="B303" s="44" t="s">
+        <v>917</v>
+      </c>
+      <c r="C303" s="44" t="s">
+        <v>918</v>
+      </c>
+      <c r="D303" s="44" t="s">
+        <v>919</v>
+      </c>
+      <c r="E303" s="2">
+        <v>1</v>
+      </c>
+      <c r="F303" s="2">
+        <v>1</v>
+      </c>
+      <c r="G303" s="2">
+        <v>1</v>
+      </c>
+      <c r="H303" s="2"/>
+      <c r="I303" s="43" t="s">
         <v>644</v>
       </c>
     </row>

--- a/config_12.22/game_module_config_cjj.xlsx
+++ b/config_12.22/game_module_config_cjj.xlsx
@@ -4446,10 +4446,10 @@
   <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I307" activeCellId="1" sqref="I303 I307"/>
+      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11305,13 +11305,13 @@
         <v>807</v>
       </c>
       <c r="E270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="21" t="s">
